--- a/Merged.Data/us.stats.xlsx
+++ b/Merged.Data/us.stats.xlsx
@@ -12,14 +12,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <si>
     <t>location</t>
   </si>
   <si>
-    <t>infectioncount</t>
-  </si>
-  <si>
     <t>smokingrate</t>
   </si>
   <si>
@@ -35,9 +32,6 @@
     <t>averagecrimerate</t>
   </si>
   <si>
-    <t>percentrepublican</t>
-  </si>
-  <si>
     <t>percentcollege</t>
   </si>
   <si>
@@ -51,6 +45,15 @@
   </si>
   <si>
     <t>infectionrate</t>
+  </si>
+  <si>
+    <t>repubgov</t>
+  </si>
+  <si>
+    <t>under25</t>
+  </si>
+  <si>
+    <t>percentfemale</t>
   </si>
   <si>
     <t>1</t>
@@ -448,371 +451,398 @@
       <c r="N1" t="s">
         <v>12</v>
       </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C2" t="n">
-        <v>1270.0</v>
+        <v>20.9</v>
       </c>
       <c r="D2" t="n">
-        <v>20.9</v>
+        <v>16.5</v>
       </c>
       <c r="E2" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="F2" t="n">
-        <v>16.6</v>
+        <v>25.2</v>
       </c>
       <c r="G2" t="n">
-        <v>25.2</v>
+        <v>1740.75</v>
       </c>
       <c r="H2" t="n">
-        <v>1740.75</v>
+        <v>0.24927438470429</v>
       </c>
       <c r="I2" t="n">
-        <v>0.35</v>
+        <v>15.6</v>
       </c>
       <c r="J2" t="n">
-        <v>0.24927438470429</v>
+        <v>47.76</v>
       </c>
       <c r="K2" t="n">
-        <v>15.6</v>
+        <v>4903185.0</v>
       </c>
       <c r="L2" t="n">
-        <v>47.76</v>
+        <v>2.590153135156026E-4</v>
       </c>
       <c r="M2" t="n">
-        <v>4903185.0</v>
+        <v>59.6</v>
       </c>
       <c r="N2" t="n">
-        <v>2.590153135156026E-4</v>
+        <v>0.32999999999999996</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" t="n">
-        <v>147.0</v>
+        <v>21.0</v>
       </c>
       <c r="D3" t="n">
-        <v>21.0</v>
+        <v>24.6</v>
       </c>
       <c r="E3" t="n">
-        <v>24.6</v>
+        <v>14.6</v>
       </c>
       <c r="F3" t="n">
-        <v>14.6</v>
+        <v>19.3</v>
       </c>
       <c r="G3" t="n">
-        <v>19.3</v>
+        <v>2185.55</v>
       </c>
       <c r="H3" t="n">
-        <v>2185.55</v>
+        <v>0.292311299131094</v>
       </c>
       <c r="I3" t="n">
-        <v>0.31</v>
+        <v>12.6</v>
       </c>
       <c r="J3" t="n">
-        <v>0.292311299131094</v>
+        <v>41.8</v>
       </c>
       <c r="K3" t="n">
-        <v>12.6</v>
+        <v>731545.0</v>
       </c>
       <c r="L3" t="n">
-        <v>41.8</v>
+        <v>2.0094457620515484E-4</v>
       </c>
       <c r="M3" t="n">
-        <v>731545.0</v>
+        <v>51.5</v>
       </c>
       <c r="N3" t="n">
-        <v>2.0094457620515484E-4</v>
+        <v>0.36</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.49</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C4" t="n">
-        <v>1598.0</v>
+        <v>15.6</v>
       </c>
       <c r="D4" t="n">
-        <v>15.6</v>
+        <v>19.2</v>
       </c>
       <c r="E4" t="n">
-        <v>19.2</v>
+        <v>23.8</v>
       </c>
       <c r="F4" t="n">
-        <v>23.8</v>
+        <v>20.1</v>
       </c>
       <c r="G4" t="n">
-        <v>20.1</v>
+        <v>1711.45</v>
       </c>
       <c r="H4" t="n">
-        <v>1711.45</v>
+        <v>0.288754992520391</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4</v>
+        <v>13.2</v>
       </c>
       <c r="J4" t="n">
-        <v>0.288754992520391</v>
+        <v>46.9</v>
       </c>
       <c r="K4" t="n">
-        <v>13.2</v>
+        <v>7278717.0</v>
       </c>
       <c r="L4" t="n">
-        <v>46.9</v>
+        <v>2.1954418615258706E-4</v>
       </c>
       <c r="M4" t="n">
-        <v>7278717.0</v>
+        <v>56.0</v>
       </c>
       <c r="N4" t="n">
-        <v>2.1954418615258706E-4</v>
+        <v>0.32999999999999996</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C5" t="n">
-        <v>679.0</v>
+        <v>22.3</v>
       </c>
       <c r="D5" t="n">
-        <v>22.3</v>
+        <v>18.3</v>
       </c>
       <c r="E5" t="n">
-        <v>18.3</v>
+        <v>15.7</v>
       </c>
       <c r="F5" t="n">
-        <v>15.7</v>
+        <v>30.4</v>
       </c>
       <c r="G5" t="n">
-        <v>30.4</v>
+        <v>1816.75</v>
       </c>
       <c r="H5" t="n">
-        <v>1816.75</v>
+        <v>0.225888770458964</v>
       </c>
       <c r="I5" t="n">
-        <v>0.36</v>
+        <v>15.4</v>
       </c>
       <c r="J5" t="n">
-        <v>0.225888770458964</v>
+        <v>47.32</v>
       </c>
       <c r="K5" t="n">
-        <v>15.4</v>
+        <v>3017804.0</v>
       </c>
       <c r="L5" t="n">
-        <v>47.32</v>
+        <v>2.2499804493598656E-4</v>
       </c>
       <c r="M5" t="n">
-        <v>3017804.0</v>
+        <v>65.3</v>
       </c>
       <c r="N5" t="n">
-        <v>2.2499804493598656E-4</v>
+        <v>0.33999999999999997</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.51</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C6" t="n">
-        <v>9191.0</v>
+        <v>11.3</v>
       </c>
       <c r="D6" t="n">
-        <v>11.3</v>
+        <v>10.9</v>
       </c>
       <c r="E6" t="n">
-        <v>10.9</v>
+        <v>12.8</v>
       </c>
       <c r="F6" t="n">
-        <v>12.8</v>
+        <v>13.6</v>
       </c>
       <c r="G6" t="n">
-        <v>13.6</v>
+        <v>1473.0</v>
       </c>
       <c r="H6" t="n">
-        <v>1473.0</v>
+        <v>0.332536528536587</v>
       </c>
       <c r="I6" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>48.89</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.9512223E7</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.3261156427468026E-4</v>
+      </c>
+      <c r="M6" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.32999999999999996</v>
+      </c>
+      <c r="O6" t="n">
         <v>0.51</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.332536528536587</v>
-      </c>
-      <c r="K6" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>48.89</v>
-      </c>
-      <c r="M6" t="n">
-        <v>3.9512223E7</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2.3261156427468026E-4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C7" t="n">
-        <v>3728.0</v>
+        <v>14.6</v>
       </c>
       <c r="D7" t="n">
-        <v>14.6</v>
+        <v>21.9</v>
       </c>
       <c r="E7" t="n">
-        <v>21.9</v>
+        <v>16.8</v>
       </c>
       <c r="F7" t="n">
-        <v>16.8</v>
+        <v>14.3</v>
       </c>
       <c r="G7" t="n">
-        <v>14.3</v>
+        <v>1534.85</v>
       </c>
       <c r="H7" t="n">
-        <v>1534.85</v>
+        <v>0.401455266404026</v>
       </c>
       <c r="I7" t="n">
-        <v>0.46</v>
+        <v>9.0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.401455266404026</v>
+        <v>45.89</v>
       </c>
       <c r="K7" t="n">
-        <v>9.0</v>
+        <v>5758736.0</v>
       </c>
       <c r="L7" t="n">
-        <v>45.89</v>
+        <v>6.473642827175964E-4</v>
       </c>
       <c r="M7" t="n">
-        <v>5758736.0</v>
+        <v>42.8</v>
       </c>
       <c r="N7" t="n">
-        <v>6.473642827175964E-4</v>
+        <v>0.32999999999999996</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C8" t="n">
-        <v>3824.0</v>
+        <v>12.7</v>
       </c>
       <c r="D8" t="n">
-        <v>12.7</v>
+        <v>10.6</v>
       </c>
       <c r="E8" t="n">
-        <v>10.6</v>
+        <v>30.7</v>
       </c>
       <c r="F8" t="n">
-        <v>30.7</v>
+        <v>8.3</v>
       </c>
       <c r="G8" t="n">
-        <v>8.3</v>
+        <v>998.95</v>
       </c>
       <c r="H8" t="n">
-        <v>998.95</v>
+        <v>0.389407304127796</v>
       </c>
       <c r="I8" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="J8" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3565287.0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.0010725644246872693</v>
+      </c>
+      <c r="M8" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O8" t="n">
         <v>0.51</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.389407304127796</v>
-      </c>
-      <c r="K8" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="L8" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="M8" t="n">
-        <v>3565287.0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.0010725644246872693</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C9" t="n">
-        <v>393.0</v>
+        <v>17.0</v>
       </c>
       <c r="D9" t="n">
-        <v>17.0</v>
+        <v>11.4</v>
       </c>
       <c r="E9" t="n">
-        <v>11.4</v>
+        <v>43.8</v>
       </c>
       <c r="F9" t="n">
-        <v>43.8</v>
+        <v>16.7</v>
       </c>
       <c r="G9" t="n">
-        <v>16.7</v>
+        <v>1447.0</v>
       </c>
       <c r="H9" t="n">
-        <v>1447.0</v>
+        <v>0.313997869629185</v>
       </c>
       <c r="I9" t="n">
-        <v>0.45</v>
+        <v>8.1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.313997869629185</v>
+        <v>45.7</v>
       </c>
       <c r="K9" t="n">
-        <v>8.1</v>
+        <v>973764.0</v>
       </c>
       <c r="L9" t="n">
-        <v>45.7</v>
+        <v>4.0358854917618643E-4</v>
       </c>
       <c r="M9" t="n">
-        <v>973764.0</v>
+        <v>39.2</v>
       </c>
       <c r="N9" t="n">
-        <v>4.0358854917618643E-4</v>
+        <v>0.3</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.52</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C10" t="n">
-        <v>653.0</v>
-      </c>
-      <c r="D10" t="n">
         <v>14.3</v>
+      </c>
+      <c r="D10" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E10" t="e">
         <v>#N/A</v>
@@ -820,1877 +850,2006 @@
       <c r="F10" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G10" t="e">
+      <c r="G10" t="n">
+        <v>2644.3999999999996</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.575687757838601</v>
+      </c>
+      <c r="I10" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="J10" t="n">
+        <v>53.14</v>
+      </c>
+      <c r="K10" t="n">
+        <v>705749.0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>9.25258130015062E-4</v>
+      </c>
+      <c r="M10" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H10" t="n">
-        <v>2644.3999999999996</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.575687757838601</v>
-      </c>
-      <c r="K10" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="L10" t="n">
-        <v>53.14</v>
-      </c>
-      <c r="M10" t="n">
-        <v>705749.0</v>
-      </c>
       <c r="N10" t="n">
-        <v>9.25258130015062E-4</v>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.53</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C11" t="n">
-        <v>8694.0</v>
+        <v>16.1</v>
       </c>
       <c r="D11" t="n">
-        <v>16.1</v>
+        <v>15.2</v>
       </c>
       <c r="E11" t="n">
-        <v>15.2</v>
+        <v>22.8</v>
       </c>
       <c r="F11" t="n">
-        <v>22.8</v>
+        <v>16.7</v>
       </c>
       <c r="G11" t="n">
-        <v>16.7</v>
+        <v>1460.2</v>
       </c>
       <c r="H11" t="n">
-        <v>1460.2</v>
+        <v>0.291654975271209</v>
       </c>
       <c r="I11" t="n">
-        <v>0.42</v>
+        <v>13.5</v>
       </c>
       <c r="J11" t="n">
-        <v>0.291654975271209</v>
+        <v>48.58</v>
       </c>
       <c r="K11" t="n">
-        <v>13.5</v>
+        <v>2.1477737E7</v>
       </c>
       <c r="L11" t="n">
-        <v>48.58</v>
+        <v>4.04791249655399E-4</v>
       </c>
       <c r="M11" t="n">
-        <v>2.1477737E7</v>
+        <v>49.6</v>
       </c>
       <c r="N11" t="n">
-        <v>4.04791249655399E-4</v>
+        <v>0.29</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.52</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C12" t="n">
-        <v>5486.0</v>
+        <v>17.5</v>
       </c>
       <c r="D12" t="n">
-        <v>17.5</v>
+        <v>14.6</v>
       </c>
       <c r="E12" t="n">
-        <v>14.6</v>
+        <v>13.2</v>
       </c>
       <c r="F12" t="n">
-        <v>13.2</v>
+        <v>20.6</v>
       </c>
       <c r="G12" t="n">
-        <v>20.6</v>
+        <v>1608.6999999999998</v>
       </c>
       <c r="H12" t="n">
-        <v>1608.6999999999998</v>
+        <v>0.306505797425406</v>
       </c>
       <c r="I12" t="n">
-        <v>0.42</v>
+        <v>14.0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.306505797425406</v>
+        <v>48.21</v>
       </c>
       <c r="K12" t="n">
-        <v>14.0</v>
+        <v>1.0617423E7</v>
       </c>
       <c r="L12" t="n">
-        <v>48.21</v>
+        <v>5.166978842229418E-4</v>
       </c>
       <c r="M12" t="n">
-        <v>1.0617423E7</v>
+        <v>50.2</v>
       </c>
       <c r="N12" t="n">
-        <v>5.166978842229418E-4</v>
+        <v>0.35</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.52</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C13" t="n">
-        <v>225.0</v>
+        <v>12.8</v>
       </c>
       <c r="D13" t="n">
-        <v>12.8</v>
+        <v>11.9</v>
       </c>
       <c r="E13" t="n">
-        <v>11.9</v>
+        <v>14.3</v>
       </c>
       <c r="F13" t="n">
-        <v>14.3</v>
+        <v>17.2</v>
       </c>
       <c r="G13" t="n">
-        <v>17.2</v>
+        <v>1540.05</v>
       </c>
       <c r="H13" t="n">
-        <v>1540.05</v>
+        <v>0.32477409707123</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5</v>
+        <v>9.9</v>
       </c>
       <c r="J13" t="n">
-        <v>0.32477409707123</v>
+        <v>44.04</v>
       </c>
       <c r="K13" t="n">
-        <v>9.9</v>
+        <v>1415872.0</v>
       </c>
       <c r="L13" t="n">
-        <v>44.04</v>
+        <v>1.589126700718709E-4</v>
       </c>
       <c r="M13" t="n">
-        <v>1415872.0</v>
+        <v>33.7</v>
       </c>
       <c r="N13" t="n">
-        <v>1.589126700718709E-4</v>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.51</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C14" t="n">
-        <v>891.0</v>
+        <v>14.3</v>
       </c>
       <c r="D14" t="n">
-        <v>14.3</v>
+        <v>23.9</v>
       </c>
       <c r="E14" t="n">
-        <v>23.9</v>
+        <v>14.6</v>
       </c>
       <c r="F14" t="n">
-        <v>14.6</v>
+        <v>16.0</v>
       </c>
       <c r="G14" t="n">
-        <v>16.0</v>
+        <v>930.9000000000001</v>
       </c>
       <c r="H14" t="n">
-        <v>930.9000000000001</v>
+        <v>0.269235430096964</v>
       </c>
       <c r="I14" t="n">
-        <v>0.31</v>
+        <v>11.5</v>
       </c>
       <c r="J14" t="n">
-        <v>0.269235430096964</v>
+        <v>44.78</v>
       </c>
       <c r="K14" t="n">
-        <v>11.5</v>
+        <v>1787065.0</v>
       </c>
       <c r="L14" t="n">
-        <v>44.78</v>
+        <v>4.98582871915683E-4</v>
       </c>
       <c r="M14" t="n">
-        <v>1787065.0</v>
+        <v>59.8</v>
       </c>
       <c r="N14" t="n">
-        <v>4.98582871915683E-4</v>
+        <v>0.36</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C15" t="n">
-        <v>7695.0</v>
+        <v>15.5</v>
       </c>
       <c r="D15" t="n">
-        <v>15.5</v>
+        <v>11.3</v>
       </c>
       <c r="E15" t="n">
-        <v>11.3</v>
+        <v>21.3</v>
       </c>
       <c r="F15" t="n">
-        <v>21.3</v>
+        <v>15.8</v>
       </c>
       <c r="G15" t="n">
-        <v>15.8</v>
+        <v>1225.1000000000001</v>
       </c>
       <c r="H15" t="n">
-        <v>1225.1000000000001</v>
+        <v>0.340667375154379</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5</v>
+        <v>10.9</v>
       </c>
       <c r="J15" t="n">
-        <v>0.340667375154379</v>
+        <v>48.09</v>
       </c>
       <c r="K15" t="n">
-        <v>10.9</v>
+        <v>1.2671821E7</v>
       </c>
       <c r="L15" t="n">
-        <v>48.09</v>
+        <v>6.072528960123411E-4</v>
       </c>
       <c r="M15" t="n">
-        <v>1.2671821E7</v>
+        <v>38.8</v>
       </c>
       <c r="N15" t="n">
-        <v>6.072528960123411E-4</v>
+        <v>0.32999999999999996</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.51</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C16" t="n">
-        <v>3039.0</v>
+        <v>21.8</v>
       </c>
       <c r="D16" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="F16" t="n">
         <v>21.8</v>
       </c>
-      <c r="E16" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>25.6</v>
-      </c>
       <c r="G16" t="n">
-        <v>21.8</v>
+        <v>1407.95</v>
       </c>
       <c r="H16" t="n">
-        <v>1407.95</v>
+        <v>0.259080893173918</v>
       </c>
       <c r="I16" t="n">
-        <v>0.41</v>
+        <v>11.6</v>
       </c>
       <c r="J16" t="n">
-        <v>0.259080893173918</v>
+        <v>45.05</v>
       </c>
       <c r="K16" t="n">
-        <v>11.6</v>
+        <v>6732219.0</v>
       </c>
       <c r="L16" t="n">
-        <v>45.05</v>
+        <v>4.5141134000542765E-4</v>
       </c>
       <c r="M16" t="n">
-        <v>6732219.0</v>
+        <v>51.4</v>
       </c>
       <c r="N16" t="n">
-        <v>4.5141134000542765E-4</v>
+        <v>0.33999999999999997</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.51</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C17" t="n">
-        <v>614.0</v>
+        <v>17.1</v>
       </c>
       <c r="D17" t="n">
-        <v>17.1</v>
+        <v>15.5</v>
       </c>
       <c r="E17" t="n">
-        <v>15.5</v>
+        <v>9.6</v>
       </c>
       <c r="F17" t="n">
-        <v>9.6</v>
+        <v>15.3</v>
       </c>
       <c r="G17" t="n">
-        <v>15.3</v>
+        <v>1209.3500000000001</v>
       </c>
       <c r="H17" t="n">
-        <v>1209.3500000000001</v>
+        <v>0.282033542281946</v>
       </c>
       <c r="I17" t="n">
-        <v>0.42</v>
+        <v>8.2</v>
       </c>
       <c r="J17" t="n">
-        <v>0.282033542281946</v>
+        <v>44.27</v>
       </c>
       <c r="K17" t="n">
-        <v>8.2</v>
+        <v>3155070.0</v>
       </c>
       <c r="L17" t="n">
-        <v>44.27</v>
+        <v>1.9460740966127535E-4</v>
       </c>
       <c r="M17" t="n">
-        <v>3155070.0</v>
+        <v>50.3</v>
       </c>
       <c r="N17" t="n">
-        <v>1.9460740966127535E-4</v>
+        <v>0.33999999999999997</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.51</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C18" t="n">
-        <v>552.0</v>
+        <v>17.4</v>
       </c>
       <c r="D18" t="n">
-        <v>17.4</v>
+        <v>19.3</v>
       </c>
       <c r="E18" t="n">
-        <v>19.3</v>
+        <v>12.4</v>
       </c>
       <c r="F18" t="n">
-        <v>12.4</v>
+        <v>20.0</v>
       </c>
       <c r="G18" t="n">
-        <v>20.0</v>
+        <v>1606.95</v>
       </c>
       <c r="H18" t="n">
-        <v>1606.95</v>
+        <v>0.328856400174172</v>
       </c>
       <c r="I18" t="n">
-        <v>0.34</v>
+        <v>10.9</v>
       </c>
       <c r="J18" t="n">
-        <v>0.328856400174172</v>
+        <v>45.6</v>
       </c>
       <c r="K18" t="n">
-        <v>10.9</v>
+        <v>2913314.0</v>
       </c>
       <c r="L18" t="n">
-        <v>45.6</v>
+        <v>1.8947494159572226E-4</v>
       </c>
       <c r="M18" t="n">
-        <v>2913314.0</v>
+        <v>43.0</v>
       </c>
       <c r="N18" t="n">
-        <v>1.8947494159572226E-4</v>
+        <v>0.35</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.51</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C19" t="n">
-        <v>770.0</v>
+        <v>24.6</v>
       </c>
       <c r="D19" t="n">
-        <v>24.6</v>
+        <v>17.5</v>
       </c>
       <c r="E19" t="n">
-        <v>17.5</v>
+        <v>30.9</v>
       </c>
       <c r="F19" t="n">
-        <v>30.9</v>
+        <v>27.3</v>
       </c>
       <c r="G19" t="n">
-        <v>27.3</v>
+        <v>1177.45</v>
       </c>
       <c r="H19" t="n">
-        <v>1177.45</v>
+        <v>0.236219059628416</v>
       </c>
       <c r="I19" t="n">
-        <v>0.41</v>
+        <v>14.6</v>
       </c>
       <c r="J19" t="n">
-        <v>0.236219059628416</v>
+        <v>47.62</v>
       </c>
       <c r="K19" t="n">
-        <v>14.6</v>
+        <v>4467673.0</v>
       </c>
       <c r="L19" t="n">
-        <v>47.62</v>
+        <v>1.723492296772839E-4</v>
       </c>
       <c r="M19" t="n">
-        <v>4467673.0</v>
+        <v>48.83</v>
       </c>
       <c r="N19" t="n">
-        <v>1.723492296772839E-4</v>
+        <v>0.32999999999999996</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.51</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C20" t="n">
-        <v>9150.0</v>
+        <v>23.1</v>
       </c>
       <c r="D20" t="n">
-        <v>23.1</v>
+        <v>15.1</v>
       </c>
       <c r="E20" t="n">
-        <v>15.1</v>
+        <v>25.4</v>
       </c>
       <c r="F20" t="n">
-        <v>25.4</v>
+        <v>27.5</v>
       </c>
       <c r="G20" t="n">
-        <v>27.5</v>
+        <v>1961.9</v>
       </c>
       <c r="H20" t="n">
-        <v>1961.9</v>
+        <v>0.237325290280607</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4</v>
+        <v>19.8</v>
       </c>
       <c r="J20" t="n">
-        <v>0.237325290280607</v>
+        <v>49.1</v>
       </c>
       <c r="K20" t="n">
-        <v>19.8</v>
+        <v>4648794.0</v>
       </c>
       <c r="L20" t="n">
-        <v>49.1</v>
+        <v>0.001968252411270536</v>
       </c>
       <c r="M20" t="n">
-        <v>4648794.0</v>
+        <v>48.67</v>
       </c>
       <c r="N20" t="n">
-        <v>0.001968252411270536</v>
+        <v>0.33999999999999997</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.52</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C21" t="n">
-        <v>376.0</v>
+        <v>17.3</v>
       </c>
       <c r="D21" t="n">
-        <v>17.3</v>
+        <v>18.5</v>
       </c>
       <c r="E21" t="n">
-        <v>18.5</v>
+        <v>27.9</v>
       </c>
       <c r="F21" t="n">
-        <v>27.9</v>
+        <v>11.1</v>
       </c>
       <c r="G21" t="n">
-        <v>11.1</v>
+        <v>814.05</v>
       </c>
       <c r="H21" t="n">
-        <v>814.05</v>
+        <v>0.309205421651271</v>
       </c>
       <c r="I21" t="n">
-        <v>0.47</v>
+        <v>12.0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.309205421651271</v>
+        <v>45.29</v>
       </c>
       <c r="K21" t="n">
-        <v>12.0</v>
+        <v>1344212.0</v>
       </c>
       <c r="L21" t="n">
-        <v>45.29</v>
+        <v>2.797177826116714E-4</v>
       </c>
       <c r="M21" t="n">
-        <v>1344212.0</v>
+        <v>43.2</v>
       </c>
       <c r="N21" t="n">
-        <v>2.797177826116714E-4</v>
+        <v>0.26</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.51</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C22" t="n">
-        <v>2331.0</v>
+        <v>13.8</v>
       </c>
       <c r="D22" t="n">
-        <v>13.8</v>
+        <v>10.2</v>
       </c>
       <c r="E22" t="n">
-        <v>10.2</v>
+        <v>37.2</v>
       </c>
       <c r="F22" t="n">
-        <v>37.2</v>
+        <v>14.1</v>
       </c>
       <c r="G22" t="n">
-        <v>14.1</v>
+        <v>1361.25</v>
       </c>
       <c r="H22" t="n">
-        <v>1361.25</v>
+        <v>0.396262762894856</v>
       </c>
       <c r="I22" t="n">
-        <v>0.56</v>
+        <v>7.8</v>
       </c>
       <c r="J22" t="n">
-        <v>0.396262762894856</v>
+        <v>45.2</v>
       </c>
       <c r="K22" t="n">
-        <v>7.8</v>
+        <v>6045680.0</v>
       </c>
       <c r="L22" t="n">
-        <v>45.2</v>
+        <v>3.8556456841910256E-4</v>
       </c>
       <c r="M22" t="n">
-        <v>6045680.0</v>
+        <v>55.4</v>
       </c>
       <c r="N22" t="n">
-        <v>3.8556456841910256E-4</v>
+        <v>0.31</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.52</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C23" t="n">
-        <v>8966.0</v>
+        <v>13.7</v>
       </c>
       <c r="D23" t="n">
-        <v>13.7</v>
+        <v>9.9</v>
       </c>
       <c r="E23" t="n">
-        <v>9.9</v>
+        <v>32.8</v>
       </c>
       <c r="F23" t="n">
-        <v>32.8</v>
+        <v>7.2</v>
       </c>
       <c r="G23" t="n">
-        <v>7.2</v>
+        <v>897.5</v>
       </c>
       <c r="H23" t="n">
-        <v>897.5</v>
+        <v>0.429098750314553</v>
       </c>
       <c r="I23" t="n">
-        <v>0.57</v>
+        <v>10.0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.429098750314553</v>
+        <v>48.31</v>
       </c>
       <c r="K23" t="n">
-        <v>10.0</v>
+        <v>6892503.0</v>
       </c>
       <c r="L23" t="n">
-        <v>48.31</v>
+        <v>0.0013008336739207802</v>
       </c>
       <c r="M23" t="n">
-        <v>6892503.0</v>
+        <v>66.8</v>
       </c>
       <c r="N23" t="n">
-        <v>0.0013008336739207802</v>
+        <v>0.3</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.51</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C24" t="n">
-        <v>10791.0</v>
+        <v>19.3</v>
       </c>
       <c r="D24" t="n">
-        <v>19.3</v>
+        <v>15.0</v>
       </c>
       <c r="E24" t="n">
-        <v>15.0</v>
+        <v>26.6</v>
       </c>
       <c r="F24" t="n">
-        <v>26.6</v>
+        <v>15.8</v>
       </c>
       <c r="G24" t="n">
-        <v>15.8</v>
+        <v>1125.0</v>
       </c>
       <c r="H24" t="n">
-        <v>1125.0</v>
+        <v>0.286029312418463</v>
       </c>
       <c r="I24" t="n">
-        <v>0.45</v>
+        <v>11.0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.286029312418463</v>
+        <v>46.56</v>
       </c>
       <c r="K24" t="n">
-        <v>11.0</v>
+        <v>9986857.0</v>
       </c>
       <c r="L24" t="n">
-        <v>46.56</v>
+        <v>0.0010805201276037095</v>
       </c>
       <c r="M24" t="n">
-        <v>9986857.0</v>
+        <v>43.7</v>
       </c>
       <c r="N24" t="n">
-        <v>0.0010805201276037095</v>
+        <v>0.32</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.51</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C25" t="n">
-        <v>789.0</v>
+        <v>14.5</v>
       </c>
       <c r="D25" t="n">
-        <v>14.5</v>
+        <v>13.1</v>
       </c>
       <c r="E25" t="n">
-        <v>13.1</v>
+        <v>11.5</v>
       </c>
       <c r="F25" t="n">
-        <v>11.5</v>
+        <v>10.2</v>
       </c>
       <c r="G25" t="n">
-        <v>10.2</v>
+        <v>1214.9</v>
       </c>
       <c r="H25" t="n">
-        <v>1214.9</v>
+        <v>0.35446579926587</v>
       </c>
       <c r="I25" t="n">
-        <v>0.47</v>
+        <v>8.2</v>
       </c>
       <c r="J25" t="n">
-        <v>0.35446579926587</v>
+        <v>45.01</v>
       </c>
       <c r="K25" t="n">
-        <v>8.2</v>
+        <v>5639632.0</v>
       </c>
       <c r="L25" t="n">
-        <v>45.01</v>
+        <v>1.399027454273612E-4</v>
       </c>
       <c r="M25" t="n">
-        <v>5639632.0</v>
+        <v>42.4</v>
       </c>
       <c r="N25" t="n">
-        <v>1.399027454273612E-4</v>
+        <v>0.32</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C26" t="n">
-        <v>1358.0</v>
+        <v>22.2</v>
       </c>
       <c r="D26" t="n">
-        <v>22.2</v>
+        <v>13.8</v>
       </c>
       <c r="E26" t="n">
-        <v>13.8</v>
+        <v>10.8</v>
       </c>
       <c r="F26" t="n">
-        <v>10.8</v>
+        <v>27.8</v>
       </c>
       <c r="G26" t="n">
-        <v>27.8</v>
+        <v>1509.8</v>
       </c>
       <c r="H26" t="n">
-        <v>1509.8</v>
+        <v>0.218153787346606</v>
       </c>
       <c r="I26" t="n">
-        <v>0.38</v>
+        <v>19.0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.218153787346606</v>
+        <v>47.81</v>
       </c>
       <c r="K26" t="n">
-        <v>19.0</v>
+        <v>2976149.0</v>
       </c>
       <c r="L26" t="n">
-        <v>47.81</v>
+        <v>4.562943589181859E-4</v>
       </c>
       <c r="M26" t="n">
-        <v>2976149.0</v>
+        <v>51.91</v>
       </c>
       <c r="N26" t="n">
-        <v>4.562943589181859E-4</v>
+        <v>0.35</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.52</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C27" t="n">
-        <v>1834.0</v>
+        <v>20.8</v>
       </c>
       <c r="D27" t="n">
-        <v>20.8</v>
+        <v>19.5</v>
       </c>
       <c r="E27" t="n">
-        <v>19.5</v>
+        <v>27.5</v>
       </c>
       <c r="F27" t="n">
-        <v>27.5</v>
+        <v>21.6</v>
       </c>
       <c r="G27" t="n">
-        <v>21.6</v>
+        <v>1682.1</v>
       </c>
       <c r="H27" t="n">
-        <v>1682.1</v>
+        <v>0.28633439664782</v>
       </c>
       <c r="I27" t="n">
-        <v>0.38</v>
+        <v>11.9</v>
       </c>
       <c r="J27" t="n">
-        <v>0.28633439664782</v>
+        <v>46.3</v>
       </c>
       <c r="K27" t="n">
-        <v>11.9</v>
+        <v>6137428.0</v>
       </c>
       <c r="L27" t="n">
-        <v>46.3</v>
+        <v>2.988222428026854E-4</v>
       </c>
       <c r="M27" t="n">
-        <v>6137428.0</v>
+        <v>51.3</v>
       </c>
       <c r="N27" t="n">
-        <v>2.988222428026854E-4</v>
+        <v>0.32999999999999996</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.51</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C28" t="n">
-        <v>244.0</v>
+        <v>17.2</v>
       </c>
       <c r="D28" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="E28" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F28" t="n">
         <v>17.2</v>
       </c>
-      <c r="E28" t="n">
-        <v>24.9</v>
-      </c>
-      <c r="F28" t="n">
-        <v>12.2</v>
-      </c>
       <c r="G28" t="n">
-        <v>17.2</v>
+        <v>1484.35</v>
       </c>
       <c r="H28" t="n">
-        <v>1484.35</v>
+        <v>0.312026175085787</v>
       </c>
       <c r="I28" t="n">
-        <v>0.37</v>
+        <v>10.3</v>
       </c>
       <c r="J28" t="n">
-        <v>0.312026175085787</v>
+        <v>46.07</v>
       </c>
       <c r="K28" t="n">
-        <v>10.3</v>
+        <v>1068778.0</v>
       </c>
       <c r="L28" t="n">
-        <v>46.07</v>
+        <v>2.282981124237213E-4</v>
       </c>
       <c r="M28" t="n">
-        <v>1068778.0</v>
+        <v>46.4</v>
       </c>
       <c r="N28" t="n">
-        <v>2.282981124237213E-4</v>
+        <v>0.31</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C29" t="n">
-        <v>255.0</v>
+        <v>15.4</v>
       </c>
       <c r="D29" t="n">
-        <v>15.4</v>
+        <v>13.4</v>
       </c>
       <c r="E29" t="n">
-        <v>13.4</v>
+        <v>7.4</v>
       </c>
       <c r="F29" t="n">
-        <v>7.4</v>
+        <v>16.7</v>
       </c>
       <c r="G29" t="n">
-        <v>16.7</v>
+        <v>1289.95</v>
       </c>
       <c r="H29" t="n">
-        <v>1289.95</v>
+        <v>0.313261642399009</v>
       </c>
       <c r="I29" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>44.27</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1934408.0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.3182327616511098E-4</v>
+      </c>
+      <c r="M29" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="N29" t="n">
         <v>0.35</v>
       </c>
-      <c r="J29" t="n">
-        <v>0.313261642399009</v>
-      </c>
-      <c r="K29" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>44.27</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1934408.0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>1.3182327616511098E-4</v>
+      <c r="O29" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C30" t="n">
-        <v>1458.0</v>
+        <v>17.6</v>
       </c>
       <c r="D30" t="n">
-        <v>17.6</v>
+        <v>20.8</v>
       </c>
       <c r="E30" t="n">
-        <v>20.8</v>
+        <v>21.2</v>
       </c>
       <c r="F30" t="n">
-        <v>21.2</v>
+        <v>20.5</v>
       </c>
       <c r="G30" t="n">
-        <v>20.5</v>
+        <v>1584.15</v>
       </c>
       <c r="H30" t="n">
-        <v>1584.15</v>
+        <v>0.242498188813111</v>
       </c>
       <c r="I30" t="n">
-        <v>0.42</v>
+        <v>13.1</v>
       </c>
       <c r="J30" t="n">
-        <v>0.242498188813111</v>
+        <v>45.28</v>
       </c>
       <c r="K30" t="n">
-        <v>13.1</v>
+        <v>3080156.0</v>
       </c>
       <c r="L30" t="n">
-        <v>45.28</v>
+        <v>4.7335264837235517E-4</v>
       </c>
       <c r="M30" t="n">
-        <v>3080156.0</v>
+        <v>45.3</v>
       </c>
       <c r="N30" t="n">
-        <v>4.7335264837235517E-4</v>
+        <v>0.32</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C31" t="n">
-        <v>479.0</v>
+        <v>15.7</v>
       </c>
       <c r="D31" t="n">
-        <v>15.7</v>
+        <v>19.4</v>
       </c>
       <c r="E31" t="n">
-        <v>19.4</v>
+        <v>35.8</v>
       </c>
       <c r="F31" t="n">
-        <v>35.8</v>
+        <v>8.0</v>
       </c>
       <c r="G31" t="n">
-        <v>8.0</v>
+        <v>790.25</v>
       </c>
       <c r="H31" t="n">
-        <v>790.25</v>
+        <v>0.364898147807775</v>
       </c>
       <c r="I31" t="n">
-        <v>0.43</v>
+        <v>6.6</v>
       </c>
       <c r="J31" t="n">
-        <v>0.364898147807775</v>
+        <v>43.54</v>
       </c>
       <c r="K31" t="n">
-        <v>6.6</v>
+        <v>1359711.0</v>
       </c>
       <c r="L31" t="n">
-        <v>43.54</v>
+        <v>3.5228074201061843E-4</v>
       </c>
       <c r="M31" t="n">
-        <v>1359711.0</v>
+        <v>49.0</v>
       </c>
       <c r="N31" t="n">
-        <v>3.5228074201061843E-4</v>
+        <v>0.28</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C32" t="n">
-        <v>25590.0</v>
+        <v>13.7</v>
       </c>
       <c r="D32" t="n">
-        <v>13.7</v>
+        <v>8.3</v>
       </c>
       <c r="E32" t="n">
-        <v>8.3</v>
+        <v>33.1</v>
       </c>
       <c r="F32" t="n">
-        <v>33.1</v>
+        <v>10.3</v>
       </c>
       <c r="G32" t="n">
-        <v>10.3</v>
+        <v>892.15</v>
       </c>
       <c r="H32" t="n">
-        <v>892.15</v>
+        <v>0.38894520993575</v>
       </c>
       <c r="I32" t="n">
-        <v>0.48</v>
+        <v>9.1</v>
       </c>
       <c r="J32" t="n">
-        <v>0.38894520993575</v>
+        <v>48.02</v>
       </c>
       <c r="K32" t="n">
-        <v>9.1</v>
+        <v>8882190.0</v>
       </c>
       <c r="L32" t="n">
-        <v>48.02</v>
+        <v>0.002881046228463926</v>
       </c>
       <c r="M32" t="n">
-        <v>8882190.0</v>
+        <v>41.89</v>
       </c>
       <c r="N32" t="n">
-        <v>0.002881046228463926</v>
+        <v>0.31</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.51</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C33" t="n">
-        <v>403.0</v>
+        <v>17.5</v>
       </c>
       <c r="D33" t="n">
-        <v>17.5</v>
+        <v>25.0</v>
       </c>
       <c r="E33" t="n">
-        <v>25.0</v>
+        <v>26.7</v>
       </c>
       <c r="F33" t="n">
-        <v>26.7</v>
+        <v>25.3</v>
       </c>
       <c r="G33" t="n">
-        <v>25.3</v>
+        <v>2362.6</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.6</v>
+        <v>0.271248242820667</v>
       </c>
       <c r="I33" t="n">
-        <v>0.48</v>
+        <v>18.2</v>
       </c>
       <c r="J33" t="n">
-        <v>0.271248242820667</v>
+        <v>47.64</v>
       </c>
       <c r="K33" t="n">
-        <v>18.2</v>
+        <v>2096829.0</v>
       </c>
       <c r="L33" t="n">
-        <v>47.64</v>
+        <v>1.921949763190036E-4</v>
       </c>
       <c r="M33" t="n">
-        <v>2096829.0</v>
+        <v>42.8</v>
       </c>
       <c r="N33" t="n">
-        <v>1.921949763190036E-4</v>
+        <v>0.32999999999999996</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.51</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C34" t="n">
-        <v>90279.0</v>
+        <v>14.1</v>
       </c>
       <c r="D34" t="n">
-        <v>14.1</v>
+        <v>8.3</v>
       </c>
       <c r="E34" t="n">
-        <v>8.3</v>
+        <v>18.4</v>
       </c>
       <c r="F34" t="n">
-        <v>18.4</v>
+        <v>11.7</v>
       </c>
       <c r="G34" t="n">
-        <v>11.7</v>
+        <v>935.45</v>
       </c>
       <c r="H34" t="n">
-        <v>935.45</v>
+        <v>0.359254382992872</v>
       </c>
       <c r="I34" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J34" t="n">
+        <v>51.29</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1.9453561E7</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.004640744180461356</v>
+      </c>
+      <c r="M34" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="O34" t="n">
         <v>0.52</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.359254382992872</v>
-      </c>
-      <c r="K34" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L34" t="n">
-        <v>51.29</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1.9453561E7</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0.004640744180461356</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C35" t="n">
-        <v>2093.0</v>
+        <v>17.2</v>
       </c>
       <c r="D35" t="n">
-        <v>17.2</v>
+        <v>13.7</v>
       </c>
       <c r="E35" t="n">
-        <v>13.7</v>
+        <v>22.4</v>
       </c>
       <c r="F35" t="n">
-        <v>22.4</v>
+        <v>18.7</v>
       </c>
       <c r="G35" t="n">
-        <v>18.7</v>
+        <v>1454.5</v>
       </c>
       <c r="H35" t="n">
-        <v>1454.5</v>
+        <v>0.305038497340947</v>
       </c>
       <c r="I35" t="n">
-        <v>0.44</v>
+        <v>14.1</v>
       </c>
       <c r="J35" t="n">
-        <v>0.305038497340947</v>
+        <v>47.61</v>
       </c>
       <c r="K35" t="n">
-        <v>14.1</v>
+        <v>1.0488084E7</v>
       </c>
       <c r="L35" t="n">
-        <v>47.61</v>
+        <v>1.9955980520369593E-4</v>
       </c>
       <c r="M35" t="n">
-        <v>1.0488084E7</v>
+        <v>48.9</v>
       </c>
       <c r="N35" t="n">
-        <v>1.9955980520369593E-4</v>
+        <v>0.32</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.52</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B36" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C36" t="n">
-        <v>159.0</v>
+        <v>18.3</v>
       </c>
       <c r="D36" t="n">
-        <v>18.3</v>
+        <v>19.2</v>
       </c>
       <c r="E36" t="n">
-        <v>19.2</v>
+        <v>10.2</v>
       </c>
       <c r="F36" t="n">
-        <v>10.2</v>
+        <v>16.4</v>
       </c>
       <c r="G36" t="n">
-        <v>16.4</v>
+        <v>1239.5500000000002</v>
       </c>
       <c r="H36" t="n">
-        <v>1239.5500000000002</v>
+        <v>0.294545654821279</v>
       </c>
       <c r="I36" t="n">
-        <v>0.28</v>
+        <v>11.1</v>
       </c>
       <c r="J36" t="n">
-        <v>0.294545654821279</v>
+        <v>45.89</v>
       </c>
       <c r="K36" t="n">
-        <v>11.1</v>
+        <v>762062.0</v>
       </c>
       <c r="L36" t="n">
-        <v>45.89</v>
+        <v>2.086444410034879E-4</v>
       </c>
       <c r="M36" t="n">
-        <v>762062.0</v>
+        <v>76.7</v>
       </c>
       <c r="N36" t="n">
-        <v>2.086444410034879E-4</v>
+        <v>0.35</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.49</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C37" t="n">
-        <v>2902.0</v>
+        <v>21.1</v>
       </c>
       <c r="D37" t="n">
-        <v>21.1</v>
+        <v>15.3</v>
       </c>
       <c r="E37" t="n">
-        <v>15.3</v>
+        <v>35.9</v>
       </c>
       <c r="F37" t="n">
-        <v>35.9</v>
+        <v>18.9</v>
       </c>
       <c r="G37" t="n">
-        <v>18.9</v>
+        <v>1358.3</v>
       </c>
       <c r="H37" t="n">
-        <v>1358.3</v>
+        <v>0.277881615227757</v>
       </c>
       <c r="I37" t="n">
-        <v>0.41</v>
+        <v>12.4</v>
       </c>
       <c r="J37" t="n">
-        <v>0.277881615227757</v>
+        <v>46.44</v>
       </c>
       <c r="K37" t="n">
-        <v>12.4</v>
+        <v>1.16891E7</v>
       </c>
       <c r="L37" t="n">
-        <v>46.44</v>
+        <v>2.4826547809497735E-4</v>
       </c>
       <c r="M37" t="n">
-        <v>1.16891E7</v>
+        <v>50.4</v>
       </c>
       <c r="N37" t="n">
-        <v>2.4826547809497735E-4</v>
+        <v>0.32</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.51</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B38" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C38" t="n">
-        <v>879.0</v>
+        <v>20.1</v>
       </c>
       <c r="D38" t="n">
-        <v>20.1</v>
+        <v>20.0</v>
       </c>
       <c r="E38" t="n">
-        <v>20.0</v>
+        <v>18.4</v>
       </c>
       <c r="F38" t="n">
-        <v>18.4</v>
+        <v>27.2</v>
       </c>
       <c r="G38" t="n">
-        <v>27.2</v>
+        <v>1666.3</v>
       </c>
       <c r="H38" t="n">
-        <v>1666.3</v>
+        <v>0.251775348960626</v>
       </c>
       <c r="I38" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>46.54</v>
+      </c>
+      <c r="K38" t="n">
+        <v>3956971.0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>2.2213961133402292E-4</v>
+      </c>
+      <c r="M38" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="N38" t="n">
         <v>0.35</v>
       </c>
-      <c r="J38" t="n">
-        <v>0.251775348960626</v>
-      </c>
-      <c r="K38" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="L38" t="n">
-        <v>46.54</v>
-      </c>
-      <c r="M38" t="n">
-        <v>3956971.0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>2.2213961133402292E-4</v>
+      <c r="O38" t="n">
+        <v>0.51</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C39" t="n">
-        <v>826.0</v>
+        <v>16.1</v>
       </c>
       <c r="D39" t="n">
-        <v>16.1</v>
+        <v>19.0</v>
       </c>
       <c r="E39" t="n">
-        <v>19.0</v>
+        <v>12.6</v>
       </c>
       <c r="F39" t="n">
-        <v>12.6</v>
+        <v>13.3</v>
       </c>
       <c r="G39" t="n">
-        <v>13.3</v>
+        <v>1634.15</v>
       </c>
       <c r="H39" t="n">
-        <v>1634.15</v>
+        <v>0.328978602746771</v>
       </c>
       <c r="I39" t="n">
-        <v>0.49</v>
+        <v>10.6</v>
       </c>
       <c r="J39" t="n">
-        <v>0.328978602746771</v>
+        <v>46.15</v>
       </c>
       <c r="K39" t="n">
-        <v>10.6</v>
+        <v>4217737.0</v>
       </c>
       <c r="L39" t="n">
-        <v>46.15</v>
+        <v>1.9583961731136864E-4</v>
       </c>
       <c r="M39" t="n">
-        <v>4217737.0</v>
+        <v>43.7</v>
       </c>
       <c r="N39" t="n">
-        <v>1.9583961731136864E-4</v>
+        <v>0.3</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.51</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C40" t="n">
-        <v>7016.0</v>
+        <v>18.7</v>
       </c>
       <c r="D40" t="n">
-        <v>18.7</v>
+        <v>14.9</v>
       </c>
       <c r="E40" t="n">
-        <v>14.9</v>
+        <v>36.1</v>
       </c>
       <c r="F40" t="n">
-        <v>36.1</v>
+        <v>14.1</v>
       </c>
       <c r="G40" t="n">
-        <v>14.1</v>
+        <v>981.35</v>
       </c>
       <c r="H40" t="n">
-        <v>981.35</v>
+        <v>0.307723943079101</v>
       </c>
       <c r="I40" t="n">
-        <v>0.46</v>
+        <v>11.4</v>
       </c>
       <c r="J40" t="n">
-        <v>0.307723943079101</v>
+        <v>47.05</v>
       </c>
       <c r="K40" t="n">
-        <v>11.4</v>
+        <v>1.2801989E7</v>
       </c>
       <c r="L40" t="n">
-        <v>47.05</v>
+        <v>5.480398397467768E-4</v>
       </c>
       <c r="M40" t="n">
-        <v>1.2801989E7</v>
+        <v>40.7</v>
       </c>
       <c r="N40" t="n">
-        <v>5.480398397467768E-4</v>
+        <v>0.3</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.51</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B41" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C41" t="n">
-        <v>681.0</v>
+        <v>14.9</v>
       </c>
       <c r="D41" t="n">
-        <v>14.9</v>
+        <v>9.5</v>
       </c>
       <c r="E41" t="n">
-        <v>9.5</v>
+        <v>30.1</v>
       </c>
       <c r="F41" t="n">
-        <v>30.1</v>
+        <v>11.5</v>
       </c>
       <c r="G41" t="n">
-        <v>11.5</v>
+        <v>991.9</v>
       </c>
       <c r="H41" t="n">
-        <v>991.9</v>
+        <v>0.332744125653993</v>
       </c>
       <c r="I41" t="n">
-        <v>0.48</v>
+        <v>10.1</v>
       </c>
       <c r="J41" t="n">
-        <v>0.332744125653993</v>
+        <v>47.48</v>
       </c>
       <c r="K41" t="n">
-        <v>10.1</v>
+        <v>1059361.0</v>
       </c>
       <c r="L41" t="n">
-        <v>47.48</v>
+        <v>6.428403537604273E-4</v>
       </c>
       <c r="M41" t="n">
-        <v>1059361.0</v>
+        <v>37.3</v>
       </c>
       <c r="N41" t="n">
-        <v>6.428403537604273E-4</v>
+        <v>0.29000000000000004</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.52</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B42" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C42" t="n">
-        <v>1554.0</v>
+        <v>18.8</v>
       </c>
       <c r="D42" t="n">
-        <v>18.8</v>
+        <v>15.4</v>
       </c>
       <c r="E42" t="n">
-        <v>15.4</v>
+        <v>22.6</v>
       </c>
       <c r="F42" t="n">
-        <v>22.6</v>
+        <v>22.0</v>
       </c>
       <c r="G42" t="n">
-        <v>22.0</v>
+        <v>1851.05</v>
       </c>
       <c r="H42" t="n">
-        <v>1851.05</v>
+        <v>0.274098213235915</v>
       </c>
       <c r="I42" t="n">
-        <v>0.37</v>
+        <v>14.0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.274098213235915</v>
+        <v>47.06</v>
       </c>
       <c r="K42" t="n">
-        <v>14.0</v>
+        <v>5148714.0</v>
       </c>
       <c r="L42" t="n">
-        <v>47.06</v>
+        <v>3.018229406410999E-4</v>
       </c>
       <c r="M42" t="n">
-        <v>5148714.0</v>
+        <v>54.0</v>
       </c>
       <c r="N42" t="n">
-        <v>3.018229406410999E-4</v>
+        <v>0.32</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.52</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B43" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C43" t="n">
-        <v>165.0</v>
+        <v>19.3</v>
       </c>
       <c r="D43" t="n">
         <v>19.3</v>
       </c>
       <c r="E43" t="n">
-        <v>19.3</v>
+        <v>6.9</v>
       </c>
       <c r="F43" t="n">
-        <v>6.9</v>
+        <v>20.4</v>
       </c>
       <c r="G43" t="n">
-        <v>20.4</v>
+        <v>1154.9</v>
       </c>
       <c r="H43" t="n">
-        <v>1154.9</v>
+        <v>0.284750204114742</v>
       </c>
       <c r="I43" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="J43" t="n">
+        <v>44.62</v>
+      </c>
+      <c r="K43" t="n">
+        <v>884659.0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1.8651254325112841E-4</v>
+      </c>
+      <c r="M43" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="N43" t="n">
         <v>0.35</v>
       </c>
-      <c r="J43" t="n">
-        <v>0.284750204114742</v>
-      </c>
-      <c r="K43" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L43" t="n">
-        <v>44.62</v>
-      </c>
-      <c r="M43" t="n">
-        <v>884659.0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>1.8651254325112841E-4</v>
+      <c r="O43" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C44" t="n">
-        <v>2845.0</v>
+        <v>22.6</v>
       </c>
       <c r="D44" t="n">
-        <v>22.6</v>
+        <v>16.6</v>
       </c>
       <c r="E44" t="n">
-        <v>16.6</v>
+        <v>27.5</v>
       </c>
       <c r="F44" t="n">
-        <v>27.5</v>
+        <v>25.3</v>
       </c>
       <c r="G44" t="n">
-        <v>25.3</v>
+        <v>1796.05</v>
       </c>
       <c r="H44" t="n">
-        <v>1796.05</v>
+        <v>0.266194937389449</v>
       </c>
       <c r="I44" t="n">
-        <v>0.35</v>
+        <v>11.7</v>
       </c>
       <c r="J44" t="n">
-        <v>0.266194937389449</v>
+        <v>48.01</v>
       </c>
       <c r="K44" t="n">
-        <v>11.7</v>
+        <v>6829174.0</v>
       </c>
       <c r="L44" t="n">
-        <v>48.01</v>
+        <v>4.1659503770148486E-4</v>
       </c>
       <c r="M44" t="n">
-        <v>6829174.0</v>
+        <v>59.6</v>
       </c>
       <c r="N44" t="n">
-        <v>4.1659503770148486E-4</v>
+        <v>0.32999999999999996</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.52</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B45" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C45" t="n">
-        <v>4669.0</v>
+        <v>15.7</v>
       </c>
       <c r="D45" t="n">
-        <v>15.7</v>
+        <v>13.7</v>
       </c>
       <c r="E45" t="n">
-        <v>13.7</v>
+        <v>10.4</v>
       </c>
       <c r="F45" t="n">
-        <v>10.4</v>
+        <v>25.3</v>
       </c>
       <c r="G45" t="n">
-        <v>25.3</v>
+        <v>1500.75</v>
       </c>
       <c r="H45" t="n">
-        <v>1500.75</v>
+        <v>0.292975796895252</v>
       </c>
       <c r="I45" t="n">
-        <v>0.38</v>
+        <v>13.4</v>
       </c>
       <c r="J45" t="n">
-        <v>0.292975796895252</v>
+        <v>48.03</v>
       </c>
       <c r="K45" t="n">
-        <v>13.4</v>
+        <v>2.8995881E7</v>
       </c>
       <c r="L45" t="n">
-        <v>48.03</v>
+        <v>1.610228708001664E-4</v>
       </c>
       <c r="M45" t="n">
-        <v>2.8995881E7</v>
+        <v>55.8</v>
       </c>
       <c r="N45" t="n">
-        <v>1.610228708001664E-4</v>
+        <v>0.36</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.51</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B46" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C46" t="n">
-        <v>1165.0</v>
+        <v>8.9</v>
       </c>
       <c r="D46" t="n">
-        <v>8.9</v>
+        <v>22.2</v>
       </c>
       <c r="E46" t="n">
-        <v>22.2</v>
+        <v>21.2</v>
       </c>
       <c r="F46" t="n">
-        <v>21.2</v>
+        <v>13.1</v>
       </c>
       <c r="G46" t="n">
-        <v>13.1</v>
+        <v>1509.55</v>
       </c>
       <c r="H46" t="n">
-        <v>1509.55</v>
+        <v>0.33256923849579</v>
       </c>
       <c r="I46" t="n">
-        <v>0.29</v>
+        <v>7.8</v>
       </c>
       <c r="J46" t="n">
-        <v>0.33256923849579</v>
+        <v>42.61</v>
       </c>
       <c r="K46" t="n">
-        <v>7.8</v>
+        <v>3205958.0</v>
       </c>
       <c r="L46" t="n">
-        <v>42.61</v>
+        <v>3.6338592083863855E-4</v>
       </c>
       <c r="M46" t="n">
-        <v>3205958.0</v>
+        <v>66.6</v>
       </c>
       <c r="N46" t="n">
-        <v>3.6338592083863855E-4</v>
+        <v>0.42</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B47" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C47" t="n">
-        <v>338.0</v>
+        <v>15.8</v>
       </c>
       <c r="D47" t="n">
-        <v>15.8</v>
+        <v>18.8</v>
       </c>
       <c r="E47" t="n">
-        <v>18.8</v>
+        <v>26.6</v>
       </c>
       <c r="F47" t="n">
-        <v>26.6</v>
+        <v>8.8</v>
       </c>
       <c r="G47" t="n">
-        <v>8.8</v>
+        <v>801.25</v>
       </c>
       <c r="H47" t="n">
-        <v>801.25</v>
+        <v>0.373226895916488</v>
       </c>
       <c r="I47" t="n">
-        <v>0.52</v>
+        <v>9.2</v>
       </c>
       <c r="J47" t="n">
-        <v>0.373226895916488</v>
+        <v>44.68</v>
       </c>
       <c r="K47" t="n">
-        <v>9.2</v>
+        <v>623989.0</v>
       </c>
       <c r="L47" t="n">
-        <v>44.68</v>
+        <v>5.416762154461057E-4</v>
       </c>
       <c r="M47" t="n">
-        <v>623989.0</v>
+        <v>55.4</v>
       </c>
       <c r="N47" t="n">
-        <v>5.416762154461057E-4</v>
+        <v>0.27</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.51</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B48" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C48" t="n">
-        <v>2012.0</v>
+        <v>16.4</v>
       </c>
       <c r="D48" t="n">
-        <v>16.4</v>
+        <v>14.0</v>
       </c>
       <c r="E48" t="n">
-        <v>14.0</v>
+        <v>17.1</v>
       </c>
       <c r="F48" t="n">
-        <v>17.1</v>
+        <v>14.3</v>
       </c>
       <c r="G48" t="n">
-        <v>14.3</v>
+        <v>1000.5500000000001</v>
       </c>
       <c r="H48" t="n">
-        <v>1000.5500000000001</v>
+        <v>0.38162803960385</v>
       </c>
       <c r="I48" t="n">
-        <v>0.45</v>
+        <v>10.1</v>
       </c>
       <c r="J48" t="n">
-        <v>0.38162803960385</v>
+        <v>46.66</v>
       </c>
       <c r="K48" t="n">
-        <v>10.1</v>
+        <v>8535519.0</v>
       </c>
       <c r="L48" t="n">
-        <v>46.66</v>
+        <v>2.3572087414953913E-4</v>
       </c>
       <c r="M48" t="n">
-        <v>8535519.0</v>
+        <v>44.97</v>
       </c>
       <c r="N48" t="n">
-        <v>2.3572087414953913E-4</v>
+        <v>0.32999999999999996</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.52</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B49" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C49" t="n">
-        <v>5683.0</v>
+        <v>13.5</v>
       </c>
       <c r="D49" t="n">
-        <v>13.5</v>
+        <v>15.9</v>
       </c>
       <c r="E49" t="n">
-        <v>15.9</v>
+        <v>14.8</v>
       </c>
       <c r="F49" t="n">
-        <v>14.8</v>
+        <v>12.7</v>
       </c>
       <c r="G49" t="n">
-        <v>12.7</v>
+        <v>1739.05</v>
       </c>
       <c r="H49" t="n">
-        <v>1739.05</v>
+        <v>0.352515212588388</v>
       </c>
       <c r="I49" t="n">
-        <v>0.49</v>
+        <v>9.7</v>
       </c>
       <c r="J49" t="n">
-        <v>0.352515212588388</v>
+        <v>45.69</v>
       </c>
       <c r="K49" t="n">
-        <v>9.7</v>
+        <v>7614893.0</v>
       </c>
       <c r="L49" t="n">
-        <v>45.69</v>
+        <v>7.46300703109026E-4</v>
       </c>
       <c r="M49" t="n">
-        <v>7614893.0</v>
+        <v>45.5</v>
       </c>
       <c r="N49" t="n">
-        <v>7.46300703109026E-4</v>
+        <v>0.31</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B50" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C50" t="n">
-        <v>217.0</v>
+        <v>26.0</v>
       </c>
       <c r="D50" t="n">
-        <v>26.0</v>
+        <v>21.2</v>
       </c>
       <c r="E50" t="n">
-        <v>21.2</v>
+        <v>51.5</v>
       </c>
       <c r="F50" t="n">
-        <v>51.5</v>
+        <v>25.4</v>
       </c>
       <c r="G50" t="n">
-        <v>25.4</v>
+        <v>1101.35</v>
       </c>
       <c r="H50" t="n">
-        <v>1101.35</v>
+        <v>0.202579708440009</v>
       </c>
       <c r="I50" t="n">
-        <v>0.4</v>
+        <v>16.5</v>
       </c>
       <c r="J50" t="n">
-        <v>0.202579708440009</v>
+        <v>46.2</v>
       </c>
       <c r="K50" t="n">
-        <v>16.5</v>
+        <v>1792147.0</v>
       </c>
       <c r="L50" t="n">
-        <v>46.2</v>
+        <v>1.2108381734310858E-4</v>
       </c>
       <c r="M50" t="n">
-        <v>1792147.0</v>
+        <v>42.3</v>
       </c>
       <c r="N50" t="n">
-        <v>1.2108381734310858E-4</v>
+        <v>0.29</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.51</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B51" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C51" t="n">
-        <v>1730.0</v>
+        <v>16.0</v>
       </c>
       <c r="D51" t="n">
-        <v>16.0</v>
+        <v>14.8</v>
       </c>
       <c r="E51" t="n">
-        <v>14.8</v>
+        <v>19.2</v>
       </c>
       <c r="F51" t="n">
-        <v>19.2</v>
+        <v>13.0</v>
       </c>
       <c r="G51" t="n">
-        <v>13.0</v>
+        <v>1064.1</v>
       </c>
       <c r="H51" t="n">
-        <v>1064.1</v>
+        <v>0.295223294272619</v>
       </c>
       <c r="I51" t="n">
-        <v>0.43</v>
+        <v>8.9</v>
       </c>
       <c r="J51" t="n">
-        <v>0.295223294272619</v>
+        <v>44.41</v>
       </c>
       <c r="K51" t="n">
-        <v>8.9</v>
+        <v>5822434.0</v>
       </c>
       <c r="L51" t="n">
-        <v>44.41</v>
+        <v>2.971265968837088E-4</v>
       </c>
       <c r="M51" t="n">
-        <v>5822434.0</v>
+        <v>48.5</v>
       </c>
       <c r="N51" t="n">
-        <v>2.971265968837088E-4</v>
+        <v>0.32</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0.51</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B52" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C52" t="n">
-        <v>150.0</v>
+        <v>18.7</v>
       </c>
       <c r="D52" t="n">
-        <v>18.7</v>
+        <v>25.2</v>
       </c>
       <c r="E52" t="n">
-        <v>25.2</v>
+        <v>11.1</v>
       </c>
       <c r="F52" t="n">
-        <v>11.1</v>
+        <v>20.8</v>
       </c>
       <c r="G52" t="n">
-        <v>20.8</v>
+        <v>1033.95</v>
       </c>
       <c r="H52" t="n">
-        <v>1033.95</v>
+        <v>0.268891394869134</v>
       </c>
       <c r="I52" t="n">
-        <v>0.27</v>
+        <v>11.2</v>
       </c>
       <c r="J52" t="n">
-        <v>0.268891394869134</v>
+        <v>42.93</v>
       </c>
       <c r="K52" t="n">
-        <v>11.2</v>
+        <v>578759.0</v>
       </c>
       <c r="L52" t="n">
-        <v>42.93</v>
+        <v>2.591752352879178E-4</v>
       </c>
       <c r="M52" t="n">
-        <v>578759.0</v>
+        <v>67.5</v>
       </c>
       <c r="N52" t="n">
-        <v>2.591752352879178E-4</v>
+        <v>0.32</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0.49</v>
       </c>
     </row>
   </sheetData>
